--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43253,6 +43253,41 @@
         </is>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43288,6 +43288,43 @@
         <v>1400</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43325,6 +43325,41 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>8200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43360,6 +43360,41 @@
         <v>8200</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43395,6 +43395,43 @@
         <v>2200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1222" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43432,6 +43432,43 @@
         </is>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43506,6 +43506,43 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1225" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         </is>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>20200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>20200</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>26400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>26400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.455</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>87300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>87300</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>174700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>174700</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>182500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>218600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,76 @@
         <v>218600</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>20000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,41 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>145000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43858,6 +43858,43 @@
         <v>145000</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43895,6 +43895,43 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="I1236" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43932,6 +43932,41 @@
         </is>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>80300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43967,6 +43967,76 @@
         <v>80300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>79400</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>105800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44037,6 +44037,41 @@
         <v>105800</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>59800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44072,6 +44072,41 @@
         <v>59800</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>86800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83412,6 +83412,41 @@
         <v>86800</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>249500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83447,6 +83447,41 @@
         <v>249500</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>421500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83482,6 +83482,41 @@
         <v>421500</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>220000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83517,6 +83517,41 @@
         <v>220000</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I2368" t="n">
+        <v>433800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83552,6 +83552,41 @@
         <v>433800</v>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>209900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83587,6 +83587,41 @@
         <v>209900</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="I2370" t="n">
+        <v>25400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83622,6 +83622,41 @@
         <v>25400</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>148900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83657,6 +83657,41 @@
         <v>148900</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>139000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83692,6 +83692,41 @@
         <v>139000</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2373"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83727,6 +83727,43 @@
         <v>113000</v>
       </c>
     </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2374" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83764,6 +83764,43 @@
         </is>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2375" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83801,6 +83801,43 @@
         </is>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2376" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2376"/>
+  <dimension ref="A1:I2377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83838,6 +83838,41 @@
         </is>
       </c>
     </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>323700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2377"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83873,6 +83873,41 @@
         <v>323700</v>
       </c>
     </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>40100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7050.xlsx
+++ b/data/7050.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83908,6 +83908,41 @@
         <v>40100</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>7050</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>WONG</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>30900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
